--- a/data/trans_dic/P19C09-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P19C09-Clase-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.005260639619850542</v>
+        <v>0.005219224831615346</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01523084045665976</v>
+        <v>0.01545782409669723</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01244060984684934</v>
+        <v>0.01242087627502479</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01121993086114836</v>
+        <v>0.01095116808025445</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01946303547629536</v>
+        <v>0.01896884978913274</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01721163214396743</v>
+        <v>0.01571688243405398</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.0115819421623413</v>
+        <v>0.01175653777762617</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.02023497402728814</v>
+        <v>0.02099111731527367</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01899644495604741</v>
+        <v>0.01862095491570247</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.0308528503441445</v>
+        <v>0.03184748355577414</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.05062347076428755</v>
+        <v>0.05315100661745102</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.0492730746877533</v>
+        <v>0.04817968539792471</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.05362218076678992</v>
+        <v>0.05740858228846374</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.07158286442840162</v>
+        <v>0.07255431988965635</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.06310482633264505</v>
+        <v>0.05704150750172469</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.03398733675571279</v>
+        <v>0.03351303969802619</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.04995346108429274</v>
+        <v>0.04896940206787468</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.0462985559196266</v>
+        <v>0.0460945017702635</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.006382263416341499</v>
+        <v>0.006496575080677926</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.007687442228570597</v>
+        <v>0.007780572484691454</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.006377432518640896</v>
+        <v>0.006263699910562681</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.008922314671692614</v>
+        <v>0.009699562981582805</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.02286398795167751</v>
+        <v>0.02266489119106043</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.01549252117724484</v>
+        <v>0.01679044404372082</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01130530141192333</v>
+        <v>0.01056802649928175</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.01727500376646082</v>
+        <v>0.01752945157259961</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01459928118267169</v>
+        <v>0.01379738422396011</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.04426152239899828</v>
+        <v>0.04435749920014635</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04237036941297546</v>
+        <v>0.04124461822776707</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04065629879403125</v>
+        <v>0.04219863087163916</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.04208239868109738</v>
+        <v>0.04400604594673159</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.07726792490354892</v>
+        <v>0.07929594675366902</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.05607953132831433</v>
+        <v>0.05596567506481266</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.03515379160660132</v>
+        <v>0.0350377917159879</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.04975581715693118</v>
+        <v>0.04665163718760298</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.03988845168549104</v>
+        <v>0.03988835953444424</v>
       </c>
     </row>
     <row r="10">
@@ -893,29 +893,29 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01669442897111275</v>
+        <v>0.01750959497886626</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01120496128665571</v>
+        <v>0.01104887389402911</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01415498705508377</v>
+        <v>0.01435886160684695</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.008136299396381642</v>
+        <v>0.008139319178029635</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01283109860546622</v>
+        <v>0.01279721028513461</v>
       </c>
       <c r="H11" s="5" t="inlineStr"/>
       <c r="I11" s="5" t="n">
-        <v>0.01864520310414561</v>
+        <v>0.01804843270793232</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01345331640179103</v>
+        <v>0.01381220077195015</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01068812820053086</v>
+        <v>0.01076208511618789</v>
       </c>
     </row>
     <row r="12">
@@ -926,29 +926,29 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05308042418028739</v>
+        <v>0.05571721450457959</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.03804600289602435</v>
+        <v>0.03797891885678958</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.04737005620984735</v>
+        <v>0.04820706864044394</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.07111040122713899</v>
+        <v>0.06890741240342582</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.05977633743482996</v>
+        <v>0.06056792915341927</v>
       </c>
       <c r="H12" s="5" t="inlineStr"/>
       <c r="I12" s="5" t="n">
-        <v>0.04951714055463239</v>
+        <v>0.04877282687634516</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.03672661269167232</v>
+        <v>0.03581048873243993</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.03500831401856831</v>
+        <v>0.03456944776781244</v>
       </c>
     </row>
     <row r="13">
@@ -998,31 +998,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01905681818861302</v>
+        <v>0.01920959982414137</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.006125044620381273</v>
+        <v>0.006349936375219833</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01850172757350687</v>
+        <v>0.01830297514881588</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01043426772338142</v>
+        <v>0.01174350049269009</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01415208941398378</v>
+        <v>0.01454826134923936</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01434331334526417</v>
+        <v>0.01338988266076929</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01796824432306421</v>
+        <v>0.01880444947902185</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.01174231828149542</v>
+        <v>0.01172544277618652</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01925206847110723</v>
+        <v>0.01959682739161853</v>
       </c>
     </row>
     <row r="15">
@@ -1033,31 +1033,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04190086576450351</v>
+        <v>0.04231758843078256</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.0219656547411338</v>
+        <v>0.0218267783363018</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04141209614633505</v>
+        <v>0.04094049238586728</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.03565163518456189</v>
+        <v>0.03733010859459573</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.04198253668850303</v>
+        <v>0.04049892133306825</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.04109522042415904</v>
+        <v>0.04045113967948474</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.03525631194596365</v>
+        <v>0.03524416572303948</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.02495382969479424</v>
+        <v>0.02662315251613177</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.03592633488233521</v>
+        <v>0.0368461166095829</v>
       </c>
     </row>
     <row r="16">
@@ -1107,31 +1107,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01911460150292104</v>
+        <v>0.01887104142945193</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.002807024864726908</v>
+        <v>0.002663984594526963</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01751120581257792</v>
+        <v>0.01802423117580079</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.02111802270119194</v>
+        <v>0.02066320116654451</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.01103853103273283</v>
+        <v>0.01170085404289849</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.01605810752949655</v>
+        <v>0.01615502947420001</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.02409851760715816</v>
+        <v>0.02340577323734911</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.0108069079964554</v>
+        <v>0.01109194218626701</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.02081416166051869</v>
+        <v>0.02042783732636078</v>
       </c>
     </row>
     <row r="18">
@@ -1142,31 +1142,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.06405168134088179</v>
+        <v>0.06615852848182986</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.03331683979364145</v>
+        <v>0.03313144950784889</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.05473635347034994</v>
+        <v>0.05314445353997472</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.05688766730977671</v>
+        <v>0.05440879728278671</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.03354662394644745</v>
+        <v>0.0347154067743835</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.04560757413005938</v>
+        <v>0.04531599289755894</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.05532906074854286</v>
+        <v>0.05330512948700288</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.0282533327561978</v>
+        <v>0.0291178106014666</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.04236876528566801</v>
+        <v>0.04282395525335429</v>
       </c>
     </row>
     <row r="19">
@@ -1216,31 +1216,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.007848559418389849</v>
+        <v>0.004706979731893896</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.004262368854552225</v>
+        <v>0.004235919201746453</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.02180072392763219</v>
+        <v>0.02294477364364912</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.02759218106023749</v>
+        <v>0.02937059589586316</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.01679201657576525</v>
+        <v>0.01701964804098283</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.01776231177663996</v>
+        <v>0.01749571522370129</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.0271494513887548</v>
+        <v>0.02703879767040922</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.01664609624883708</v>
+        <v>0.01659817326527476</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.02231451147662752</v>
+        <v>0.02285508353700059</v>
       </c>
     </row>
     <row r="21">
@@ -1251,31 +1251,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.04465659758051774</v>
+        <v>0.04413749243828213</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.03872919483094885</v>
+        <v>0.03951298488611996</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.07552911621588519</v>
+        <v>0.08037953785226556</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.05405994096558234</v>
+        <v>0.05588127953120313</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.03941114132730451</v>
+        <v>0.03999700440414262</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.04135757269681983</v>
+        <v>0.04177442992247347</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.05033281108488788</v>
+        <v>0.04895914020006932</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.0343745623308717</v>
+        <v>0.03545353980656144</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.04534037820356124</v>
+        <v>0.04466789726197853</v>
       </c>
     </row>
     <row r="22">
@@ -1325,31 +1325,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.02071324475603784</v>
+        <v>0.02047412326117936</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.01260137781006915</v>
+        <v>0.01258090645286845</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.022362637890976</v>
+        <v>0.02279037231313358</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.02548603959031046</v>
+        <v>0.02506913089702138</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.02194706140738027</v>
+        <v>0.02243345210123643</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.02120350699476544</v>
+        <v>0.02120288331497989</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.02471175245595619</v>
+        <v>0.0247707978398307</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.01916401948832587</v>
+        <v>0.01873578744902172</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.02345217548120668</v>
+        <v>0.02321891648286961</v>
       </c>
     </row>
     <row r="24">
@@ -1360,31 +1360,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.03383781741115519</v>
+        <v>0.0342257039381671</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.02278082843783208</v>
+        <v>0.02313536019163047</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.03598605868300983</v>
+        <v>0.03580631061520433</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.03894533388267674</v>
+        <v>0.03815159262414797</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.03456169396666824</v>
+        <v>0.0347478255272947</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.03377976936605168</v>
+        <v>0.03383583661082581</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.03410091462200203</v>
+        <v>0.03387203655573037</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.02765020235410547</v>
+        <v>0.02723956949106237</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.03200101052164987</v>
+        <v>0.03256710252422248</v>
       </c>
     </row>
     <row r="25">
@@ -1615,31 +1615,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>2032</v>
+        <v>2016</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>5776</v>
+        <v>5862</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>4822</v>
+        <v>4815</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>3010</v>
+        <v>2938</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>5499</v>
+        <v>5359</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>5436</v>
+        <v>4964</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>7581</v>
+        <v>7696</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>13391</v>
+        <v>13892</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>13363</v>
+        <v>13099</v>
       </c>
     </row>
     <row r="7">
@@ -1650,31 +1650,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>11919</v>
+        <v>12303</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>19199</v>
+        <v>20158</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>19099</v>
+        <v>18675</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>14386</v>
+        <v>15402</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>20225</v>
+        <v>20499</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>19930</v>
+        <v>18015</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>22248</v>
+        <v>21937</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>33059</v>
+        <v>32407</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>32568</v>
+        <v>32424</v>
       </c>
     </row>
     <row r="8">
@@ -1759,31 +1759,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1916</v>
+        <v>1950</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>2860</v>
+        <v>2894</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>2019</v>
+        <v>1983</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>2958</v>
+        <v>3216</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>7097</v>
+        <v>7035</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>5168</v>
+        <v>5601</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>7142</v>
+        <v>6676</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>11788</v>
+        <v>11962</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>9493</v>
+        <v>8972</v>
       </c>
     </row>
     <row r="11">
@@ -1794,28 +1794,28 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>13288</v>
+        <v>13316</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>15761</v>
+        <v>15342</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>12874</v>
+        <v>13363</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>13952</v>
+        <v>14589</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>23983</v>
+        <v>24613</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>18707</v>
+        <v>18669</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>22208</v>
+        <v>22135</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>33952</v>
+        <v>31833</v>
       </c>
       <c r="K11" s="6" t="n">
         <v>25937</v>
@@ -1903,29 +1903,29 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>7166</v>
+        <v>7516</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>5885</v>
+        <v>5803</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>5736</v>
+        <v>5818</v>
       </c>
       <c r="F14" s="6" t="n">
         <v>1140</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>3049</v>
+        <v>3041</v>
       </c>
       <c r="H14" s="6" t="inlineStr"/>
       <c r="I14" s="6" t="n">
-        <v>10615</v>
+        <v>10275</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>10262</v>
+        <v>10536</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>5821</v>
+        <v>5861</v>
       </c>
     </row>
     <row r="15">
@@ -1936,29 +1936,29 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>22783</v>
+        <v>23915</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>19981</v>
+        <v>19946</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>19195</v>
+        <v>19534</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>9960</v>
+        <v>9652</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>14202</v>
+        <v>14391</v>
       </c>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>28190</v>
+        <v>27766</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>28014</v>
+        <v>27315</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>19067</v>
+        <v>18828</v>
       </c>
     </row>
     <row r="16">
@@ -2043,31 +2043,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>16562</v>
+        <v>16695</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>5833</v>
+        <v>6048</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>16272</v>
+        <v>16098</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>6221</v>
+        <v>7002</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>9560</v>
+        <v>9827</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>9811</v>
+        <v>9159</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>26330</v>
+        <v>27555</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>19115</v>
+        <v>19088</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>30101</v>
+        <v>30640</v>
       </c>
     </row>
     <row r="19">
@@ -2078,31 +2078,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>36416</v>
+        <v>36778</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>20920</v>
+        <v>20788</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>36422</v>
+        <v>36007</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>21257</v>
+        <v>22258</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>28359</v>
+        <v>27357</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>28110</v>
+        <v>27670</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>51662</v>
+        <v>51645</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>40622</v>
+        <v>43339</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>56172</v>
+        <v>57610</v>
       </c>
     </row>
     <row r="20">
@@ -2187,31 +2187,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>4723</v>
+        <v>4663</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1105</v>
+        <v>1048</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>7445</v>
+        <v>7663</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>9632</v>
+        <v>9424</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>7260</v>
+        <v>7696</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>8952</v>
+        <v>9006</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>16945</v>
+        <v>16458</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>11361</v>
+        <v>11661</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>20453</v>
+        <v>20073</v>
       </c>
     </row>
     <row r="23">
@@ -2222,31 +2222,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>15826</v>
+        <v>16347</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>13112</v>
+        <v>13039</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>23272</v>
+        <v>22595</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>25945</v>
+        <v>24815</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>22064</v>
+        <v>22833</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>25425</v>
+        <v>25263</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>38905</v>
+        <v>37482</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>29702</v>
+        <v>30611</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>41634</v>
+        <v>42081</v>
       </c>
     </row>
     <row r="24">
@@ -2331,31 +2331,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>1666</v>
+        <v>999</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>5266</v>
+        <v>5542</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>26046</v>
+        <v>27725</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>15153</v>
+        <v>15358</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>14659</v>
+        <v>14439</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>31390</v>
+        <v>31262</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>18574</v>
+        <v>18520</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>23806</v>
+        <v>24383</v>
       </c>
     </row>
     <row r="27">
@@ -2366,31 +2366,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>9478</v>
+        <v>9367</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>8265</v>
+        <v>8432</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>18244</v>
+        <v>19416</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>51031</v>
+        <v>52750</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>35564</v>
+        <v>36093</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>34132</v>
+        <v>34476</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>58195</v>
+        <v>56607</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>38355</v>
+        <v>39559</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>48371</v>
+        <v>47653</v>
       </c>
     </row>
     <row r="28">
@@ -2475,31 +2475,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>50626</v>
+        <v>50042</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>35734</v>
+        <v>35676</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>59389</v>
+        <v>60525</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>69734</v>
+        <v>68594</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>67292</v>
+        <v>68784</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>60549</v>
+        <v>60547</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>128015</v>
+        <v>128321</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>113104</v>
+        <v>110576</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>129252</v>
+        <v>127967</v>
       </c>
     </row>
     <row r="31">
@@ -2510,31 +2510,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>82704</v>
+        <v>83652</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>64601</v>
+        <v>65606</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>95568</v>
+        <v>95091</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>106562</v>
+        <v>104390</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>105970</v>
+        <v>106541</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>96462</v>
+        <v>96622</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>176654</v>
+        <v>175468</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>163188</v>
+        <v>160765</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>176368</v>
+        <v>179488</v>
       </c>
     </row>
     <row r="32">
